--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2237383.065069237</v>
+        <v>2234885.898892371</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673414</v>
+        <v>603248.493767345</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9292283.106165759</v>
+        <v>9292283.106165756</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E11" t="n">
-        <v>100.2616515939395</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>191.7549174328576</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958323</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U11" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V11" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515422</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374609</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247809</v>
+        <v>18.81721868247588</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1528,25 +1528,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D13" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797653</v>
       </c>
       <c r="F13" t="n">
-        <v>98.4459114043387</v>
+        <v>98.4459114043386</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404357</v>
+        <v>119.050671640437</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572814</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124547</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1582,7 +1582,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V13" t="n">
         <v>205.1625067052354</v>
@@ -1591,10 +1591,10 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X13" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335021</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E14" t="n">
-        <v>328.2304539928185</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H14" t="n">
-        <v>247.632627768728</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>204.0200353403095</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X14" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>236.8621683961329</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247499</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734099341</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D16" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797667</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433874</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572828</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124558</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145481</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T16" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U16" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V16" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W16" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X16" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>236.5013105534193</v>
+        <v>288.7835684262953</v>
       </c>
       <c r="C17" t="n">
         <v>271.3226185338224</v>
       </c>
       <c r="D17" t="n">
-        <v>260.7327683834978</v>
+        <v>260.7327683834977</v>
       </c>
       <c r="E17" t="n">
-        <v>287.9800968350767</v>
+        <v>287.9800968350766</v>
       </c>
       <c r="F17" t="n">
-        <v>312.9257725045263</v>
+        <v>312.9257725045262</v>
       </c>
       <c r="G17" t="n">
-        <v>316.9714524162683</v>
+        <v>316.9714524162682</v>
       </c>
       <c r="H17" t="n">
-        <v>200.6574911501353</v>
+        <v>148.3752332772567</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>15.23748855099068</v>
+        <v>15.23748855099065</v>
       </c>
       <c r="T17" t="n">
         <v>109.967696902435</v>
@@ -1901,16 +1901,16 @@
         <v>157.0448987217168</v>
       </c>
       <c r="V17" t="n">
-        <v>233.8019852329498</v>
+        <v>233.8019852329497</v>
       </c>
       <c r="W17" t="n">
-        <v>255.2906954802279</v>
+        <v>255.2906954802278</v>
       </c>
       <c r="X17" t="n">
-        <v>275.7808274412839</v>
+        <v>275.7808274412838</v>
       </c>
       <c r="Y17" t="n">
-        <v>292.2876654188685</v>
+        <v>292.2876654188684</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247809</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>85.8817069447521</v>
       </c>
       <c r="C19" t="n">
-        <v>73.2965478614427</v>
+        <v>73.29654786144263</v>
       </c>
       <c r="D19" t="n">
-        <v>54.66519978102723</v>
+        <v>54.66519978102716</v>
       </c>
       <c r="E19" t="n">
-        <v>59.96213115906504</v>
+        <v>52.48368940938397</v>
       </c>
       <c r="F19" t="n">
-        <v>51.47077478574612</v>
+        <v>51.47077478574604</v>
       </c>
       <c r="G19" t="n">
-        <v>72.07553502184309</v>
+        <v>72.07553502184302</v>
       </c>
       <c r="H19" t="n">
-        <v>50.80474167713565</v>
+        <v>50.80474167713558</v>
       </c>
       <c r="I19" t="n">
-        <v>2.402147172652953</v>
+        <v>2.40214717265291</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>95.81875209425678</v>
+        <v>95.81875209425669</v>
       </c>
       <c r="T19" t="n">
-        <v>125.5986760389841</v>
+        <v>125.598676038984</v>
       </c>
       <c r="U19" t="n">
-        <v>192.2615649684277</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>192.5727250994058</v>
       </c>
       <c r="X19" t="n">
-        <v>131.759382151852</v>
+        <v>139.2378239015326</v>
       </c>
       <c r="Y19" t="n">
-        <v>124.6343801149097</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>288.7835684262955</v>
+        <v>288.7835684262953</v>
       </c>
       <c r="C20" t="n">
         <v>271.3226185338224</v>
       </c>
       <c r="D20" t="n">
-        <v>260.7327683834978</v>
+        <v>260.7327683834977</v>
       </c>
       <c r="E20" t="n">
-        <v>287.9800968350767</v>
+        <v>287.9800968350766</v>
       </c>
       <c r="F20" t="n">
-        <v>260.6435146316506</v>
+        <v>312.9257725045262</v>
       </c>
       <c r="G20" t="n">
-        <v>316.9714524162683</v>
+        <v>316.9714524162682</v>
       </c>
       <c r="H20" t="n">
         <v>200.6574911501353</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>15.2374885509907</v>
+        <v>15.23748855099063</v>
       </c>
       <c r="T20" t="n">
         <v>109.967696902435</v>
@@ -2138,16 +2138,16 @@
         <v>157.0448987217168</v>
       </c>
       <c r="V20" t="n">
-        <v>233.8019852329498</v>
+        <v>233.8019852329497</v>
       </c>
       <c r="W20" t="n">
-        <v>255.2906954802279</v>
+        <v>255.2906954802278</v>
       </c>
       <c r="X20" t="n">
-        <v>275.7808274412839</v>
+        <v>223.4985695684088</v>
       </c>
       <c r="Y20" t="n">
-        <v>292.2876654188685</v>
+        <v>292.2876654188684</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.88170694475217</v>
+        <v>85.8817069447521</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>57.12552096356958</v>
+        <v>54.66519978102716</v>
       </c>
       <c r="E22" t="n">
-        <v>52.48368940938404</v>
+        <v>52.48368940938397</v>
       </c>
       <c r="F22" t="n">
-        <v>51.47077478574612</v>
+        <v>51.47077478574604</v>
       </c>
       <c r="G22" t="n">
-        <v>72.07553502184309</v>
+        <v>72.07553502184302</v>
       </c>
       <c r="H22" t="n">
-        <v>50.80474167713565</v>
+        <v>50.80474167713558</v>
       </c>
       <c r="I22" t="n">
-        <v>2.402147172652967</v>
+        <v>2.402147172652896</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>95.81875209425678</v>
+        <v>95.81875209425669</v>
       </c>
       <c r="T22" t="n">
-        <v>125.5986760389841</v>
+        <v>125.598676038984</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>160.6476912691863</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>192.5727250994058</v>
       </c>
       <c r="X22" t="n">
-        <v>131.759382151852</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>124.6343801149097</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>247.0584522694044</v>
+        <v>288.7835684262953</v>
       </c>
       <c r="C23" t="n">
         <v>271.3226185338224</v>
       </c>
       <c r="D23" t="n">
-        <v>260.7327683834978</v>
+        <v>260.7327683834977</v>
       </c>
       <c r="E23" t="n">
-        <v>287.9800968350767</v>
+        <v>287.9800968350766</v>
       </c>
       <c r="F23" t="n">
-        <v>312.9257725045263</v>
+        <v>312.9257725045262</v>
       </c>
       <c r="G23" t="n">
-        <v>316.9714524162683</v>
+        <v>275.2463362593748</v>
       </c>
       <c r="H23" t="n">
-        <v>200.6574911501354</v>
+        <v>200.6574911501353</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>15.23748855099073</v>
+        <v>15.23748855099065</v>
       </c>
       <c r="T23" t="n">
         <v>109.967696902435</v>
       </c>
       <c r="U23" t="n">
-        <v>157.0448987217169</v>
+        <v>157.0448987217168</v>
       </c>
       <c r="V23" t="n">
-        <v>233.8019852329498</v>
+        <v>233.8019852329497</v>
       </c>
       <c r="W23" t="n">
-        <v>255.2906954802279</v>
+        <v>255.2906954802278</v>
       </c>
       <c r="X23" t="n">
-        <v>275.7808274412839</v>
+        <v>275.7808274412838</v>
       </c>
       <c r="Y23" t="n">
-        <v>292.2876654188685</v>
+        <v>292.2876654188684</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.88170694475218</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>73.29654786144272</v>
+        <v>73.29654786144263</v>
       </c>
       <c r="D25" t="n">
-        <v>54.66519978102724</v>
+        <v>54.66519978102716</v>
       </c>
       <c r="E25" t="n">
-        <v>52.48368940938406</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>51.47077478574613</v>
+        <v>51.47077478574604</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>72.07553502184302</v>
       </c>
       <c r="H25" t="n">
-        <v>50.80474167713567</v>
+        <v>50.80474167713558</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>2.40214717265291</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>98.2790732767984</v>
+        <v>95.81875209425669</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>192.2615649684277</v>
+        <v>192.2615649684276</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>165.6658118363237</v>
       </c>
       <c r="W25" t="n">
-        <v>192.5727250994059</v>
+        <v>192.5727250994058</v>
       </c>
       <c r="X25" t="n">
         <v>131.759382151852</v>
       </c>
       <c r="Y25" t="n">
-        <v>124.6343801149097</v>
+        <v>124.6343801149096</v>
       </c>
     </row>
     <row r="26">
@@ -2558,19 +2558,19 @@
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>295.0334292796418</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2618,10 +2618,10 @@
         <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.262802037461</v>
+        <v>222.473634442668</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247704</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2731,7 +2731,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2798,7 +2798,7 @@
         <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
-        <v>120.3753618283344</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>359.9009091231188</v>
@@ -2807,7 +2807,7 @@
         <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2846,19 +2846,19 @@
         <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
         <v>302.2658320988204</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598764</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>339.262802037461</v>
+        <v>297.5969707338155</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247696</v>
+        <v>18.81721868247706</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3004,7 +3004,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
         <v>205.1625067052354</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>285.8032029865176</v>
+        <v>285.8032029865172</v>
       </c>
       <c r="C32" t="n">
-        <v>268.3422530940446</v>
+        <v>268.3422530940442</v>
       </c>
       <c r="D32" t="n">
-        <v>257.75240294372</v>
+        <v>257.7524029437196</v>
       </c>
       <c r="E32" t="n">
-        <v>284.9997313952988</v>
+        <v>284.9997313952985</v>
       </c>
       <c r="F32" t="n">
-        <v>309.9454070647485</v>
+        <v>309.9454070647481</v>
       </c>
       <c r="G32" t="n">
-        <v>313.9910869764905</v>
+        <v>313.9910869764901</v>
       </c>
       <c r="H32" t="n">
-        <v>197.6771257103575</v>
+        <v>197.6771257103571</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>12.25712311121288</v>
+        <v>12.25712311121251</v>
       </c>
       <c r="T32" t="n">
-        <v>106.9873314626572</v>
+        <v>106.9873314626568</v>
       </c>
       <c r="U32" t="n">
-        <v>154.064533281939</v>
+        <v>154.0645332819387</v>
       </c>
       <c r="V32" t="n">
-        <v>230.8216197931719</v>
+        <v>230.8216197931716</v>
       </c>
       <c r="W32" t="n">
-        <v>252.31033004045</v>
+        <v>252.3103300404497</v>
       </c>
       <c r="X32" t="n">
-        <v>272.800462001506</v>
+        <v>272.8004620015057</v>
       </c>
       <c r="Y32" t="n">
-        <v>289.3072999790906</v>
+        <v>289.3072999790903</v>
       </c>
     </row>
     <row r="33">
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247696</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>82.90134150497433</v>
+        <v>82.90134150497397</v>
       </c>
       <c r="C34" t="n">
-        <v>70.31618242166486</v>
+        <v>70.31618242166451</v>
       </c>
       <c r="D34" t="n">
-        <v>51.68483434124938</v>
+        <v>51.68483434124903</v>
       </c>
       <c r="E34" t="n">
-        <v>49.5033239696062</v>
+        <v>49.50332396960584</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>48.49040934596792</v>
       </c>
       <c r="G34" t="n">
-        <v>69.09516958206525</v>
+        <v>69.0951695820649</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>47.82437623735746</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66612275297333</v>
+        <v>34.66612275297783</v>
       </c>
       <c r="S34" t="n">
-        <v>92.83838665447894</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>122.6183105992062</v>
+        <v>122.6183105992059</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>189.2811995286495</v>
       </c>
       <c r="V34" t="n">
-        <v>155.207004646865</v>
+        <v>155.2070046468647</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>128.7790167120742</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>121.6540146751318</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D35" t="n">
         <v>256.998321392578</v>
@@ -3281,7 +3281,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U35" t="n">
         <v>153.310451730797</v>
@@ -3332,7 +3332,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383232</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052285</v>
+        <v>111.7690391349167</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010738</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846419</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482627</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092325</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333693</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>172.8237348705155</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V37" t="n">
         <v>154.452923095723</v>
@@ -3487,10 +3487,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D38" t="n">
         <v>256.998321392578</v>
@@ -3518,7 +3518,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U38" t="n">
         <v>153.310451730797</v>
@@ -3569,7 +3569,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383232</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052285</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010738</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846419</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092325</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H40" t="n">
-        <v>89.27723295060922</v>
+        <v>99.36210032693454</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3715,16 +3715,16 @@
         <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y40" t="n">
         <v>120.8999331239898</v>
@@ -3740,7 +3740,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D41" t="n">
         <v>256.998321392578</v>
@@ -3755,7 +3755,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U41" t="n">
         <v>153.310451730797</v>
@@ -3806,7 +3806,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383232</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052285</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010738</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846419</v>
+        <v>99.70874824091578</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092325</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H43" t="n">
-        <v>47.0702946862158</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>135.6235431859976</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>154.452923095723</v>
@@ -3961,10 +3961,10 @@
         <v>188.838278108486</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="44">
@@ -3977,22 +3977,22 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D44" t="n">
         <v>256.998321392578</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441538</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136056</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U44" t="n">
         <v>153.310451730797</v>
@@ -4043,7 +4043,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247631</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>124.354198218226</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010738</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846419</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482627</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092325</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H46" t="n">
-        <v>47.0702946862158</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>135.6235431859974</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T46" t="n">
         <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>154.452923095723</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1459.895634131919</v>
+        <v>1640.51772658026</v>
       </c>
       <c r="C11" t="n">
-        <v>1459.895634131919</v>
+        <v>1640.51772658026</v>
       </c>
       <c r="D11" t="n">
-        <v>1149.079568473241</v>
+        <v>1329.701660921583</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.805172923807</v>
+        <v>991.3630412714126</v>
       </c>
       <c r="F11" t="n">
-        <v>684.268901082273</v>
+        <v>627.8267694298784</v>
       </c>
       <c r="G11" t="n">
-        <v>316.646083875343</v>
+        <v>260.2039522229487</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.76478608434</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="T11" t="n">
-        <v>3262.76478608434</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U11" t="n">
-        <v>3056.68394230625</v>
+        <v>2898.155827638543</v>
       </c>
       <c r="V11" t="n">
-        <v>2773.070687910753</v>
+        <v>2614.542573243046</v>
       </c>
       <c r="W11" t="n">
-        <v>2467.751665588712</v>
+        <v>2309.223550921005</v>
       </c>
       <c r="X11" t="n">
-        <v>2141.735540275705</v>
+        <v>1983.207425607998</v>
       </c>
       <c r="Y11" t="n">
-        <v>1799.045841247967</v>
+        <v>1640.51772658026</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811093</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999823</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D12" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052946</v>
+        <v>759.4662498052952</v>
       </c>
       <c r="C13" t="n">
-        <v>637.979699825461</v>
+        <v>637.9796998254617</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611986</v>
+        <v>535.3126933611993</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268796</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770426</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998335</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
         <v>158.1401341315256</v>
@@ -5212,10 +5212,10 @@
         <v>1550.274078843938</v>
       </c>
       <c r="O13" t="n">
-        <v>1896.109063016759</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P13" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
         <v>2299.337630107746</v>
@@ -5224,7 +5224,7 @@
         <v>2256.956805813347</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T13" t="n">
         <v>1938.403572105846</v>
@@ -5242,7 +5242,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.665081687461</v>
+        <v>893.6650816874616</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1644.057218491952</v>
+        <v>1404.8025029403</v>
       </c>
       <c r="C14" t="n">
-        <v>1322.544334499614</v>
+        <v>1083.289618947962</v>
       </c>
       <c r="D14" t="n">
-        <v>1011.728268840936</v>
+        <v>772.4735532892845</v>
       </c>
       <c r="E14" t="n">
-        <v>680.1823557168773</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="F14" t="n">
-        <v>316.646083875343</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G14" t="n">
-        <v>316.646083875343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912085</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810546</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939505</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.764786084341</v>
+        <v>3262.764786084337</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416636</v>
+        <v>3104.236671416632</v>
       </c>
       <c r="U14" t="n">
-        <v>2898.155827638545</v>
+        <v>2898.155827638542</v>
       </c>
       <c r="V14" t="n">
-        <v>2614.542573243048</v>
+        <v>2614.542573243045</v>
       </c>
       <c r="W14" t="n">
-        <v>2309.223550921007</v>
+        <v>2309.223550921004</v>
       </c>
       <c r="X14" t="n">
-        <v>1983.207425608</v>
+        <v>1983.207425607998</v>
       </c>
       <c r="Y14" t="n">
-        <v>1983.207425608</v>
+        <v>1743.952710056348</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811061</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999791</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387279</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332724</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601574</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927755</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064296</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158125</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438128</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992582</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410636</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886739</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533339</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125854</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619334</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431605</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199862</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471661</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266128</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501174</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052951</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254614</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611989</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268791</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770422</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998344</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315255</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328084</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337111</v>
+        <v>771.697886033711</v>
       </c>
       <c r="M16" t="n">
-        <v>1162.360316885667</v>
+        <v>1162.360316885666</v>
       </c>
       <c r="N16" t="n">
         <v>1550.274078843938</v>
       </c>
       <c r="O16" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016757</v>
       </c>
       <c r="P16" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702823</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T16" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179564</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V16" t="n">
-        <v>1489.51548292175</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832863</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874616</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1733.774944536554</v>
+        <v>1680.964583048798</v>
       </c>
       <c r="C17" t="n">
-        <v>1459.711693492289</v>
+        <v>1406.901332004533</v>
       </c>
       <c r="D17" t="n">
-        <v>1196.345260781685</v>
+        <v>1143.534899293929</v>
       </c>
       <c r="E17" t="n">
-        <v>905.4562740795872</v>
+        <v>852.6459125918316</v>
       </c>
       <c r="F17" t="n">
-        <v>589.3696351861262</v>
+        <v>536.5592736983708</v>
       </c>
       <c r="G17" t="n">
-        <v>269.1964509272697</v>
+        <v>216.3860894395135</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5528,37 +5528,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3310.214419032414</v>
+        <v>3310.214419032411</v>
       </c>
       <c r="T17" t="n">
-        <v>3199.135937312783</v>
+        <v>3199.13593731278</v>
       </c>
       <c r="U17" t="n">
-        <v>3040.504726482766</v>
+        <v>3040.504726482763</v>
       </c>
       <c r="V17" t="n">
-        <v>2804.341105035342</v>
+        <v>2804.341105035339</v>
       </c>
       <c r="W17" t="n">
-        <v>2546.471715661374</v>
+        <v>2546.471715661371</v>
       </c>
       <c r="X17" t="n">
-        <v>2267.90522329644</v>
+        <v>2267.905223296438</v>
       </c>
       <c r="Y17" t="n">
-        <v>1972.665157216775</v>
+        <v>1972.665157216773</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D18" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="19">
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>434.8728007341156</v>
+        <v>427.3188191687807</v>
       </c>
       <c r="C19" t="n">
-        <v>360.8358837023553</v>
+        <v>353.2819021370205</v>
       </c>
       <c r="D19" t="n">
-        <v>305.6185101861661</v>
+        <v>298.0645286208314</v>
       </c>
       <c r="E19" t="n">
-        <v>245.0507009345853</v>
+        <v>245.050700934585</v>
       </c>
       <c r="F19" t="n">
-        <v>193.0600193328215</v>
+        <v>193.0600193328213</v>
       </c>
       <c r="G19" t="n">
-        <v>120.2564486036871</v>
+        <v>120.2564486036869</v>
       </c>
       <c r="H19" t="n">
-        <v>68.93852771769149</v>
+        <v>68.93852771769139</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
@@ -5692,31 +5692,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S19" t="n">
-        <v>1740.677472568994</v>
+        <v>1740.677472568993</v>
       </c>
       <c r="T19" t="n">
-        <v>1613.810123034667</v>
+        <v>1613.810123034666</v>
       </c>
       <c r="U19" t="n">
-        <v>1419.606522056457</v>
+        <v>1324.707256160309</v>
       </c>
       <c r="V19" t="n">
-        <v>1164.92203385057</v>
+        <v>1070.022767954423</v>
       </c>
       <c r="W19" t="n">
-        <v>875.5048638136095</v>
+        <v>875.5048638136086</v>
       </c>
       <c r="X19" t="n">
-        <v>742.4145788117388</v>
+        <v>734.8605972464039</v>
       </c>
       <c r="Y19" t="n">
-        <v>616.5212655643553</v>
+        <v>514.0680181028738</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1680.964583048801</v>
+        <v>1733.774944536553</v>
       </c>
       <c r="C20" t="n">
-        <v>1406.901332004536</v>
+        <v>1459.711693492288</v>
       </c>
       <c r="D20" t="n">
-        <v>1143.534899293932</v>
+        <v>1196.345260781684</v>
       </c>
       <c r="E20" t="n">
-        <v>852.6459125918341</v>
+        <v>905.4562740795868</v>
       </c>
       <c r="F20" t="n">
-        <v>589.3696351861264</v>
+        <v>589.3696351861259</v>
       </c>
       <c r="G20" t="n">
-        <v>269.1964509272697</v>
+        <v>269.1964509272696</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218345</v>
@@ -5750,13 +5750,13 @@
         <v>66.51211643218345</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
         <v>1573.77673900139</v>
@@ -5765,13 +5765,13 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609172</v>
@@ -5783,7 +5783,7 @@
         <v>3199.135937312783</v>
       </c>
       <c r="U20" t="n">
-        <v>3040.504726482766</v>
+        <v>3040.504726482765</v>
       </c>
       <c r="V20" t="n">
         <v>2804.341105035342</v>
@@ -5792,10 +5792,10 @@
         <v>2546.471715661374</v>
       </c>
       <c r="X20" t="n">
-        <v>2267.905223296441</v>
+        <v>2320.715584784194</v>
       </c>
       <c r="Y20" t="n">
-        <v>1972.665157216776</v>
+        <v>2025.475518704529</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>524.7032579765868</v>
+        <v>522.2180850649274</v>
       </c>
       <c r="C22" t="n">
-        <v>355.7670750486799</v>
+        <v>353.2819021370206</v>
       </c>
       <c r="D22" t="n">
-        <v>298.0645286208318</v>
+        <v>298.0645286208315</v>
       </c>
       <c r="E22" t="n">
-        <v>245.0507009345853</v>
+        <v>245.0507009345851</v>
       </c>
       <c r="F22" t="n">
-        <v>193.0600193328216</v>
+        <v>193.0600193328214</v>
       </c>
       <c r="G22" t="n">
-        <v>120.2564486036871</v>
+        <v>120.256448603687</v>
       </c>
       <c r="H22" t="n">
-        <v>68.9385277176915</v>
+        <v>68.93852771769143</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218345</v>
@@ -5944,16 +5944,16 @@
         <v>1414.537713402782</v>
       </c>
       <c r="V22" t="n">
-        <v>1159.853225196895</v>
+        <v>1252.267318181382</v>
       </c>
       <c r="W22" t="n">
-        <v>870.4360551599341</v>
+        <v>1057.749414040568</v>
       </c>
       <c r="X22" t="n">
-        <v>737.3457701580634</v>
+        <v>829.7598631425506</v>
       </c>
       <c r="Y22" t="n">
-        <v>611.4524569106799</v>
+        <v>608.9672839990204</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1733.992572689842</v>
+        <v>1691.845990713182</v>
       </c>
       <c r="C23" t="n">
-        <v>1459.929321645577</v>
+        <v>1417.782739668917</v>
       </c>
       <c r="D23" t="n">
-        <v>1196.562888934973</v>
+        <v>1154.416306958313</v>
       </c>
       <c r="E23" t="n">
-        <v>905.6739022328751</v>
+        <v>863.5273202562154</v>
       </c>
       <c r="F23" t="n">
-        <v>589.5872633394141</v>
+        <v>547.4406813627545</v>
       </c>
       <c r="G23" t="n">
-        <v>269.4140790805574</v>
+        <v>269.4140790805572</v>
       </c>
       <c r="H23" t="n">
-        <v>66.72974458547114</v>
+        <v>66.72974458547105</v>
       </c>
       <c r="I23" t="n">
-        <v>66.72974458547114</v>
+        <v>66.72974458547105</v>
       </c>
       <c r="J23" t="n">
-        <v>266.2726550555957</v>
+        <v>255.6088755444964</v>
       </c>
       <c r="K23" t="n">
-        <v>600.0920287454421</v>
+        <v>589.4282492343428</v>
       </c>
       <c r="L23" t="n">
-        <v>1051.126241993851</v>
+        <v>1040.462462482752</v>
       </c>
       <c r="M23" t="n">
-        <v>1584.658146665775</v>
+        <v>1573.994367154676</v>
       </c>
       <c r="N23" t="n">
-        <v>2131.436963724557</v>
+        <v>2120.773184213458</v>
       </c>
       <c r="O23" t="n">
-        <v>2634.409434603894</v>
+        <v>2623.745655092795</v>
       </c>
       <c r="P23" t="n">
-        <v>3029.183800961072</v>
+        <v>3018.520021449973</v>
       </c>
       <c r="Q23" t="n">
-        <v>3277.470162716754</v>
+        <v>3277.47016271675</v>
       </c>
       <c r="R23" t="n">
-        <v>3336.487229273557</v>
+        <v>3336.487229273553</v>
       </c>
       <c r="S23" t="n">
-        <v>3321.095826696798</v>
+        <v>3321.095826696795</v>
       </c>
       <c r="T23" t="n">
-        <v>3210.017344977167</v>
+        <v>3210.017344977164</v>
       </c>
       <c r="U23" t="n">
-        <v>3051.386134147149</v>
+        <v>3051.386134147147</v>
       </c>
       <c r="V23" t="n">
-        <v>2815.222512699725</v>
+        <v>2815.222512699723</v>
       </c>
       <c r="W23" t="n">
-        <v>2557.353123325758</v>
+        <v>2557.353123325755</v>
       </c>
       <c r="X23" t="n">
-        <v>2278.786630960824</v>
+        <v>2278.786630960822</v>
       </c>
       <c r="Y23" t="n">
-        <v>1983.546564881159</v>
+        <v>1983.546564881157</v>
       </c>
     </row>
     <row r="24">
@@ -6042,52 +6042,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.7614826343964</v>
+        <v>941.7614826343962</v>
       </c>
       <c r="C24" t="n">
-        <v>767.3084533532694</v>
+        <v>767.3084533532692</v>
       </c>
       <c r="D24" t="n">
-        <v>618.3740436920182</v>
+        <v>618.3740436920179</v>
       </c>
       <c r="E24" t="n">
-        <v>459.1365886865626</v>
+        <v>459.1365886865625</v>
       </c>
       <c r="F24" t="n">
-        <v>312.6020307134476</v>
+        <v>312.6020307134475</v>
       </c>
       <c r="G24" t="n">
-        <v>176.2389305460657</v>
+        <v>176.2389305460656</v>
       </c>
       <c r="H24" t="n">
-        <v>85.73703618393321</v>
+        <v>85.73703618393313</v>
       </c>
       <c r="I24" t="n">
-        <v>66.72974458547114</v>
+        <v>66.72974458547105</v>
       </c>
       <c r="J24" t="n">
-        <v>160.4070140760884</v>
+        <v>160.4070140760886</v>
       </c>
       <c r="K24" t="n">
-        <v>398.6712130564355</v>
+        <v>398.6712130564356</v>
       </c>
       <c r="L24" t="n">
-        <v>765.3693733691007</v>
+        <v>765.3693733691009</v>
       </c>
       <c r="M24" t="n">
-        <v>1212.645698591416</v>
+        <v>1212.645698591417</v>
       </c>
       <c r="N24" t="n">
         <v>1686.168742145871</v>
       </c>
       <c r="O24" t="n">
-        <v>2097.130021563927</v>
+        <v>2097.130021563926</v>
       </c>
       <c r="P24" t="n">
         <v>2407.629613040029</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.271170686629</v>
+        <v>2565.271170686628</v>
       </c>
       <c r="R24" t="n">
         <v>2565.126817279144</v>
@@ -6096,13 +6096,13 @@
         <v>2435.688930772624</v>
       </c>
       <c r="T24" t="n">
-        <v>2243.04593045048</v>
+        <v>2243.045930450479</v>
       </c>
       <c r="U24" t="n">
         <v>2014.978083584895</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.825975353153</v>
+        <v>1779.825975353152</v>
       </c>
       <c r="W24" t="n">
         <v>1525.588618624951</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>617.3349791143623</v>
+        <v>522.435713218215</v>
       </c>
       <c r="C25" t="n">
-        <v>543.298062082602</v>
+        <v>448.3987961864548</v>
       </c>
       <c r="D25" t="n">
-        <v>488.0806885664128</v>
+        <v>393.1814226702658</v>
       </c>
       <c r="E25" t="n">
-        <v>435.0668608801662</v>
+        <v>245.2683290878726</v>
       </c>
       <c r="F25" t="n">
-        <v>383.0761792784025</v>
+        <v>193.277647486109</v>
       </c>
       <c r="G25" t="n">
-        <v>215.3733426531214</v>
+        <v>120.4740767569746</v>
       </c>
       <c r="H25" t="n">
-        <v>164.0554217671258</v>
+        <v>69.15615587097905</v>
       </c>
       <c r="I25" t="n">
-        <v>66.72974458547114</v>
+        <v>66.72974458547105</v>
       </c>
       <c r="J25" t="n">
-        <v>111.8523770324067</v>
+        <v>111.8523770324066</v>
       </c>
       <c r="K25" t="n">
-        <v>315.839559981283</v>
+        <v>315.8395599812829</v>
       </c>
       <c r="L25" t="n">
         <v>632.3993584297791</v>
@@ -6169,28 +6169,28 @@
         <v>1927.51217624178</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.51217624178</v>
+        <v>1837.681718999308</v>
       </c>
       <c r="S25" t="n">
-        <v>1828.240385053095</v>
+        <v>1740.895100722281</v>
       </c>
       <c r="T25" t="n">
-        <v>1606.47376962262</v>
+        <v>1519.128485291807</v>
       </c>
       <c r="U25" t="n">
-        <v>1412.270168644411</v>
+        <v>1324.924884313597</v>
       </c>
       <c r="V25" t="n">
-        <v>1157.585680438524</v>
+        <v>1157.585680438523</v>
       </c>
       <c r="W25" t="n">
-        <v>963.0677762977097</v>
+        <v>963.0677762977089</v>
       </c>
       <c r="X25" t="n">
-        <v>829.9774912958389</v>
+        <v>829.9774912958381</v>
       </c>
       <c r="Y25" t="n">
-        <v>704.0841780484554</v>
+        <v>704.0841780484548</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1638.265052441605</v>
+        <v>1430.217783284951</v>
       </c>
       <c r="C26" t="n">
-        <v>1316.752168449267</v>
+        <v>1108.704899292613</v>
       </c>
       <c r="D26" t="n">
-        <v>1018.738603520336</v>
+        <v>797.8888336339355</v>
       </c>
       <c r="E26" t="n">
-        <v>680.3999838701649</v>
+        <v>797.8888336339355</v>
       </c>
       <c r="F26" t="n">
-        <v>316.8637120286306</v>
+        <v>434.3525617924013</v>
       </c>
       <c r="G26" t="n">
-        <v>316.8637120286306</v>
+        <v>66.72974458547105</v>
       </c>
       <c r="H26" t="n">
-        <v>66.72974458547114</v>
+        <v>66.72974458547105</v>
       </c>
       <c r="I26" t="n">
-        <v>66.72974458547114</v>
+        <v>66.72974458547105</v>
       </c>
       <c r="J26" t="n">
-        <v>255.6088755444966</v>
+        <v>255.6088755444964</v>
       </c>
       <c r="K26" t="n">
-        <v>589.4282492343431</v>
+        <v>589.4282492343428</v>
       </c>
       <c r="L26" t="n">
         <v>1040.462462482752</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.994367154677</v>
+        <v>1584.658146665771</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.773184213459</v>
+        <v>2131.436963724553</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.745655092796</v>
+        <v>2634.40943460389</v>
       </c>
       <c r="P26" t="n">
-        <v>3029.183800961072</v>
+        <v>3029.183800961068</v>
       </c>
       <c r="Q26" t="n">
-        <v>3277.470162716754</v>
+        <v>3277.47016271675</v>
       </c>
       <c r="R26" t="n">
-        <v>3336.487229273557</v>
+        <v>3336.487229273553</v>
       </c>
       <c r="S26" t="n">
-        <v>3273.646193748725</v>
+        <v>3273.646193748721</v>
       </c>
       <c r="T26" t="n">
-        <v>3115.11807908102</v>
+        <v>3115.118079081016</v>
       </c>
       <c r="U26" t="n">
-        <v>2909.03723530293</v>
+        <v>2909.037235302926</v>
       </c>
       <c r="V26" t="n">
-        <v>2625.423980907433</v>
+        <v>2625.423980907429</v>
       </c>
       <c r="W26" t="n">
-        <v>2320.104958585392</v>
+        <v>2320.104958585388</v>
       </c>
       <c r="X26" t="n">
-        <v>2320.104958585392</v>
+        <v>1994.088833272381</v>
       </c>
       <c r="Y26" t="n">
-        <v>1977.415259557654</v>
+        <v>1769.367990401</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.7614826343956</v>
+        <v>941.7614826343959</v>
       </c>
       <c r="C27" t="n">
-        <v>767.3084533532686</v>
+        <v>767.3084533532689</v>
       </c>
       <c r="D27" t="n">
-        <v>618.3740436920175</v>
+        <v>618.3740436920176</v>
       </c>
       <c r="E27" t="n">
-        <v>459.1365886865619</v>
+        <v>459.1365886865621</v>
       </c>
       <c r="F27" t="n">
-        <v>312.602030713447</v>
+        <v>312.6020307134471</v>
       </c>
       <c r="G27" t="n">
-        <v>176.2389305460658</v>
+        <v>176.2389305460652</v>
       </c>
       <c r="H27" t="n">
-        <v>85.73703618393347</v>
+        <v>85.73703618393272</v>
       </c>
       <c r="I27" t="n">
-        <v>66.72974458547114</v>
+        <v>66.72974458547105</v>
       </c>
       <c r="J27" t="n">
-        <v>160.4070140760884</v>
+        <v>160.4070140760883</v>
       </c>
       <c r="K27" t="n">
-        <v>398.6712130564356</v>
+        <v>398.6712130564354</v>
       </c>
       <c r="L27" t="n">
-        <v>765.3693733691008</v>
+        <v>765.3693733691007</v>
       </c>
       <c r="M27" t="n">
         <v>1212.645698591416</v>
@@ -6342,7 +6342,7 @@
         <v>1779.825975353152</v>
       </c>
       <c r="W27" t="n">
-        <v>1525.58861862495</v>
+        <v>1525.588618624951</v>
       </c>
       <c r="X27" t="n">
         <v>1317.737118419418</v>
@@ -6364,31 +6364,31 @@
         <v>638.1973279787485</v>
       </c>
       <c r="D28" t="n">
-        <v>535.5303215144861</v>
+        <v>535.530321514486</v>
       </c>
       <c r="E28" t="n">
-        <v>435.0668608801663</v>
+        <v>435.0668608801661</v>
       </c>
       <c r="F28" t="n">
         <v>335.6265463303292</v>
       </c>
       <c r="G28" t="n">
-        <v>215.3733426531215</v>
+        <v>215.3733426531214</v>
       </c>
       <c r="H28" t="n">
-        <v>116.6057888190526</v>
+        <v>116.6057888190524</v>
       </c>
       <c r="I28" t="n">
-        <v>66.72974458547114</v>
+        <v>66.72974458547105</v>
       </c>
       <c r="J28" t="n">
-        <v>158.3577622848134</v>
+        <v>158.3577622848132</v>
       </c>
       <c r="K28" t="n">
-        <v>408.8503304860964</v>
+        <v>408.8503304860963</v>
       </c>
       <c r="L28" t="n">
-        <v>771.9155141869992</v>
+        <v>771.9155141869988</v>
       </c>
       <c r="M28" t="n">
         <v>1162.577945038955</v>
@@ -6412,16 +6412,16 @@
         <v>2112.938182741534</v>
       </c>
       <c r="T28" t="n">
-        <v>1938.621200259134</v>
+        <v>1938.621200259133</v>
       </c>
       <c r="U28" t="n">
-        <v>1696.967966332851</v>
+        <v>1696.96796633285</v>
       </c>
       <c r="V28" t="n">
         <v>1489.733111075037</v>
       </c>
       <c r="W28" t="n">
-        <v>1247.76557398615</v>
+        <v>1247.765573986149</v>
       </c>
       <c r="X28" t="n">
         <v>1067.225656036205</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1801.943025302186</v>
+        <v>1680.351750728111</v>
       </c>
       <c r="C29" t="n">
-        <v>1480.430141309848</v>
+        <v>1358.838866735772</v>
       </c>
       <c r="D29" t="n">
-        <v>1169.614075651171</v>
+        <v>1048.022801077095</v>
       </c>
       <c r="E29" t="n">
         <v>1048.022801077095</v>
       </c>
       <c r="F29" t="n">
-        <v>684.486529235561</v>
+        <v>684.4865292355607</v>
       </c>
       <c r="G29" t="n">
-        <v>316.8637120286306</v>
+        <v>316.8637120286305</v>
       </c>
       <c r="H29" t="n">
-        <v>66.72974458547114</v>
+        <v>66.72974458547104</v>
       </c>
       <c r="I29" t="n">
-        <v>66.72974458547114</v>
+        <v>66.72974458547104</v>
       </c>
       <c r="J29" t="n">
-        <v>255.6088755444965</v>
+        <v>255.6088755444964</v>
       </c>
       <c r="K29" t="n">
-        <v>589.428249234343</v>
+        <v>589.4282492343427</v>
       </c>
       <c r="L29" t="n">
-        <v>1051.126241993851</v>
+        <v>1051.126241993846</v>
       </c>
       <c r="M29" t="n">
-        <v>1584.658146665775</v>
+        <v>1584.65814666577</v>
       </c>
       <c r="N29" t="n">
-        <v>2131.436963724557</v>
+        <v>2131.436963724552</v>
       </c>
       <c r="O29" t="n">
-        <v>2634.409434603894</v>
+        <v>2634.409434603889</v>
       </c>
       <c r="P29" t="n">
-        <v>3029.183800961072</v>
+        <v>3029.183800961067</v>
       </c>
       <c r="Q29" t="n">
-        <v>3277.470162716754</v>
+        <v>3277.470162716749</v>
       </c>
       <c r="R29" t="n">
-        <v>3336.487229273557</v>
+        <v>3336.487229273552</v>
       </c>
       <c r="S29" t="n">
-        <v>3273.646193748725</v>
+        <v>3273.64619374872</v>
       </c>
       <c r="T29" t="n">
-        <v>3115.11807908102</v>
+        <v>3115.118079081015</v>
       </c>
       <c r="U29" t="n">
-        <v>3115.11807908102</v>
+        <v>2909.037235302925</v>
       </c>
       <c r="V29" t="n">
-        <v>3115.11807908102</v>
+        <v>2625.423980907428</v>
       </c>
       <c r="W29" t="n">
-        <v>2809.79905675898</v>
+        <v>2320.104958585387</v>
       </c>
       <c r="X29" t="n">
-        <v>2483.782931445973</v>
+        <v>2320.104958585387</v>
       </c>
       <c r="Y29" t="n">
-        <v>2141.093232418235</v>
+        <v>2019.501957844159</v>
       </c>
     </row>
     <row r="30">
@@ -6537,13 +6537,13 @@
         <v>85.73703618393272</v>
       </c>
       <c r="I30" t="n">
-        <v>66.72974458547114</v>
+        <v>66.72974458547104</v>
       </c>
       <c r="J30" t="n">
-        <v>160.4070140760884</v>
+        <v>160.4070140760883</v>
       </c>
       <c r="K30" t="n">
-        <v>398.6712130564355</v>
+        <v>398.6712130564354</v>
       </c>
       <c r="L30" t="n">
         <v>765.3693733691007</v>
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>759.6838779585819</v>
+        <v>759.6838779585814</v>
       </c>
       <c r="C31" t="n">
-        <v>638.1973279787483</v>
+        <v>638.1973279787478</v>
       </c>
       <c r="D31" t="n">
-        <v>535.5303215144859</v>
+        <v>535.5303215144854</v>
       </c>
       <c r="E31" t="n">
-        <v>435.0668608801661</v>
+        <v>435.0668608801657</v>
       </c>
       <c r="F31" t="n">
-        <v>335.6265463303291</v>
+        <v>335.6265463303287</v>
       </c>
       <c r="G31" t="n">
-        <v>215.3733426531213</v>
+        <v>215.3733426531209</v>
       </c>
       <c r="H31" t="n">
-        <v>116.6057888190525</v>
+        <v>116.6057888190522</v>
       </c>
       <c r="I31" t="n">
-        <v>66.72974458547114</v>
+        <v>66.72974458547104</v>
       </c>
       <c r="J31" t="n">
-        <v>158.3577622848134</v>
+        <v>158.3577622848132</v>
       </c>
       <c r="K31" t="n">
-        <v>408.8503304860964</v>
+        <v>408.8503304860961</v>
       </c>
       <c r="L31" t="n">
-        <v>771.9155141869992</v>
+        <v>771.9155141869988</v>
       </c>
       <c r="M31" t="n">
-        <v>1162.577945038955</v>
+        <v>1162.577945038954</v>
       </c>
       <c r="N31" t="n">
-        <v>1550.491706997226</v>
+        <v>1550.491706997225</v>
       </c>
       <c r="O31" t="n">
-        <v>1896.326691170046</v>
+        <v>1896.326691170045</v>
       </c>
       <c r="P31" t="n">
-        <v>2175.439576856111</v>
+        <v>2175.439576856112</v>
       </c>
       <c r="Q31" t="n">
         <v>2299.555258261033</v>
@@ -6664,7 +6664,7 @@
         <v>1067.225656036205</v>
       </c>
       <c r="Y31" t="n">
-        <v>893.8827098407482</v>
+        <v>893.8827098407478</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1715.929751842703</v>
+        <v>1715.9297518427</v>
       </c>
       <c r="C32" t="n">
-        <v>1444.876970939628</v>
+        <v>1444.876970939625</v>
       </c>
       <c r="D32" t="n">
-        <v>1184.521008370214</v>
+        <v>1184.521008370211</v>
       </c>
       <c r="E32" t="n">
-        <v>896.6424918093056</v>
+        <v>896.6424918093039</v>
       </c>
       <c r="F32" t="n">
-        <v>583.5663230570344</v>
+        <v>583.5663230570331</v>
       </c>
       <c r="G32" t="n">
-        <v>266.4036089393676</v>
+        <v>266.4036089393671</v>
       </c>
       <c r="H32" t="n">
-        <v>66.72974458547114</v>
+        <v>66.72974458547104</v>
       </c>
       <c r="I32" t="n">
-        <v>66.72974458547114</v>
+        <v>66.72974458547104</v>
       </c>
       <c r="J32" t="n">
         <v>255.6088755444965</v>
@@ -6704,46 +6704,46 @@
         <v>589.428249234343</v>
       </c>
       <c r="L32" t="n">
-        <v>1051.126241993851</v>
+        <v>1040.462462482752</v>
       </c>
       <c r="M32" t="n">
-        <v>1584.658146665775</v>
+        <v>1573.994367154676</v>
       </c>
       <c r="N32" t="n">
-        <v>2131.436963724557</v>
+        <v>2120.773184213459</v>
       </c>
       <c r="O32" t="n">
-        <v>2634.409434603894</v>
+        <v>2623.745655092795</v>
       </c>
       <c r="P32" t="n">
-        <v>3029.183800961072</v>
+        <v>3029.183800961067</v>
       </c>
       <c r="Q32" t="n">
-        <v>3277.470162716754</v>
+        <v>3277.470162716749</v>
       </c>
       <c r="R32" t="n">
-        <v>3336.487229273557</v>
+        <v>3336.487229273552</v>
       </c>
       <c r="S32" t="n">
-        <v>3324.106296837988</v>
+        <v>3324.106296837983</v>
       </c>
       <c r="T32" t="n">
-        <v>3216.038285259547</v>
+        <v>3216.038285259542</v>
       </c>
       <c r="U32" t="n">
-        <v>3060.41754457072</v>
+        <v>3060.417544570715</v>
       </c>
       <c r="V32" t="n">
-        <v>2827.264393264485</v>
+        <v>2827.264393264481</v>
       </c>
       <c r="W32" t="n">
-        <v>2572.405474031707</v>
+        <v>2572.405474031704</v>
       </c>
       <c r="X32" t="n">
-        <v>2296.849451807964</v>
+        <v>2296.849451807961</v>
       </c>
       <c r="Y32" t="n">
-        <v>2004.619855869489</v>
+        <v>2004.619855869485</v>
       </c>
     </row>
     <row r="33">
@@ -6753,40 +6753,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.7614826343959</v>
+        <v>941.7614826343961</v>
       </c>
       <c r="C33" t="n">
-        <v>767.3084533532689</v>
+        <v>767.3084533532691</v>
       </c>
       <c r="D33" t="n">
-        <v>618.3740436920176</v>
+        <v>618.3740436920179</v>
       </c>
       <c r="E33" t="n">
-        <v>459.1365886865621</v>
+        <v>459.1365886865624</v>
       </c>
       <c r="F33" t="n">
-        <v>312.6020307134471</v>
+        <v>312.6020307134474</v>
       </c>
       <c r="G33" t="n">
-        <v>176.2389305460652</v>
+        <v>176.2389305460661</v>
       </c>
       <c r="H33" t="n">
-        <v>85.73703618393272</v>
+        <v>85.73703618393309</v>
       </c>
       <c r="I33" t="n">
-        <v>66.72974458547114</v>
+        <v>66.72974458547104</v>
       </c>
       <c r="J33" t="n">
-        <v>160.4070140760884</v>
+        <v>160.4070140760882</v>
       </c>
       <c r="K33" t="n">
-        <v>398.6712130564355</v>
+        <v>398.6712130564356</v>
       </c>
       <c r="L33" t="n">
-        <v>765.3693733691007</v>
+        <v>765.3693733691009</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.645698591416</v>
+        <v>1212.645698591417</v>
       </c>
       <c r="N33" t="n">
         <v>1686.168742145871</v>
@@ -6798,7 +6798,7 @@
         <v>2407.629613040029</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.271170686628</v>
+        <v>2565.271170686629</v>
       </c>
       <c r="R33" t="n">
         <v>2565.126817279144</v>
@@ -6807,13 +6807,13 @@
         <v>2435.688930772624</v>
       </c>
       <c r="T33" t="n">
-        <v>2243.045930450479</v>
+        <v>2243.04593045048</v>
       </c>
       <c r="U33" t="n">
         <v>2014.978083584895</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.825975353152</v>
+        <v>1779.825975353153</v>
       </c>
       <c r="W33" t="n">
         <v>1525.588618624951</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>602.8666872640952</v>
+        <v>407.0472151894202</v>
       </c>
       <c r="C34" t="n">
-        <v>531.8402403735246</v>
+        <v>336.0207682988499</v>
       </c>
       <c r="D34" t="n">
-        <v>479.6333369985252</v>
+        <v>283.8138649238509</v>
       </c>
       <c r="E34" t="n">
-        <v>429.6299794534684</v>
+        <v>233.8105073787945</v>
       </c>
       <c r="F34" t="n">
-        <v>282.740031955558</v>
+        <v>184.8302959182209</v>
       </c>
       <c r="G34" t="n">
-        <v>212.9469313676134</v>
+        <v>115.0371953302765</v>
       </c>
       <c r="H34" t="n">
-        <v>66.72974458547114</v>
+        <v>66.72974458547104</v>
       </c>
       <c r="I34" t="n">
-        <v>66.72974458547114</v>
+        <v>66.72974458547104</v>
       </c>
       <c r="J34" t="n">
-        <v>111.8523770324067</v>
+        <v>111.8523770324066</v>
       </c>
       <c r="K34" t="n">
-        <v>315.839559981283</v>
+        <v>315.8395599812829</v>
       </c>
       <c r="L34" t="n">
         <v>632.3993584297791</v>
       </c>
       <c r="M34" t="n">
-        <v>976.5564040293281</v>
+        <v>976.5564040293282</v>
       </c>
       <c r="N34" t="n">
         <v>1317.964780735193</v>
@@ -6874,34 +6874,34 @@
         <v>1617.294379655606</v>
       </c>
       <c r="P34" t="n">
-        <v>1849.901880089265</v>
+        <v>1849.901880089266</v>
       </c>
       <c r="Q34" t="n">
         <v>1927.51217624178</v>
       </c>
       <c r="R34" t="n">
-        <v>1892.495890632716</v>
+        <v>1892.495890632712</v>
       </c>
       <c r="S34" t="n">
-        <v>1798.719742496879</v>
+        <v>1700.810006459538</v>
       </c>
       <c r="T34" t="n">
-        <v>1674.862863103741</v>
+        <v>1576.953127066401</v>
       </c>
       <c r="U34" t="n">
-        <v>1385.759996229384</v>
+        <v>1385.759996229381</v>
       </c>
       <c r="V34" t="n">
-        <v>1228.985244060834</v>
+        <v>1228.985244060831</v>
       </c>
       <c r="W34" t="n">
-        <v>939.5680740238731</v>
+        <v>939.5680740238706</v>
       </c>
       <c r="X34" t="n">
-        <v>809.4882591631922</v>
+        <v>711.5785231258533</v>
       </c>
       <c r="Y34" t="n">
-        <v>686.6054160569985</v>
+        <v>490.7859439823231</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470372</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
@@ -6920,25 +6920,25 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464969</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495727</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6947,22 +6947,22 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
         <v>3206.680274668174</v>
@@ -6971,13 +6971,13 @@
         <v>3051.821232515854</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W35" t="n">
         <v>2565.332559049856</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y35" t="n">
         <v>1999.070337960651</v>
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7038,28 +7038,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>500.9308303909357</v>
+        <v>543.5641013650707</v>
       </c>
       <c r="C37" t="n">
-        <v>430.6660820368722</v>
+        <v>430.666082036872</v>
       </c>
       <c r="D37" t="n">
-        <v>379.2208771983799</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E37" t="n">
-        <v>329.9792181898302</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F37" t="n">
-        <v>281.7607052657632</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G37" t="n">
-        <v>212.7293032143256</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.6347488791189</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>1744.44964124669</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1569.880212084553</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U37" t="n">
-        <v>1379.44877978404</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V37" t="n">
-        <v>1223.435726151997</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W37" t="n">
-        <v>934.0185561150361</v>
+        <v>976.6518270891709</v>
       </c>
       <c r="X37" t="n">
-        <v>804.7004397908621</v>
+        <v>748.6622761911535</v>
       </c>
       <c r="Y37" t="n">
-        <v>583.907860647332</v>
+        <v>626.5411316214669</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464964</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307323</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7187,7 +7187,7 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
         <v>3018.302393296685</v>
@@ -7196,13 +7196,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
         <v>3051.821232515854</v>
@@ -7217,7 +7217,7 @@
         <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7275,28 +7275,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>543.5641013650704</v>
+        <v>552.4050786964424</v>
       </c>
       <c r="C40" t="n">
-        <v>473.2993530110069</v>
+        <v>482.1403303423789</v>
       </c>
       <c r="D40" t="n">
-        <v>421.8541481725146</v>
+        <v>430.6951255038867</v>
       </c>
       <c r="E40" t="n">
-        <v>372.6124891639649</v>
+        <v>381.453466495337</v>
       </c>
       <c r="F40" t="n">
-        <v>225.7225416660546</v>
+        <v>333.2349535712701</v>
       </c>
       <c r="G40" t="n">
-        <v>156.691139614617</v>
+        <v>264.2035515198326</v>
       </c>
       <c r="H40" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.6347488791189</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S40" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1612.513483058688</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U40" t="n">
-        <v>1422.082050758175</v>
+        <v>1233.58015894186</v>
       </c>
       <c r="V40" t="n">
-        <v>1167.397562552288</v>
+        <v>1077.567105309816</v>
       </c>
       <c r="W40" t="n">
-        <v>877.9803925153274</v>
+        <v>886.8213698466991</v>
       </c>
       <c r="X40" t="n">
-        <v>748.6622761911535</v>
+        <v>757.5032535225253</v>
       </c>
       <c r="Y40" t="n">
-        <v>626.5411316214668</v>
+        <v>635.3821089528386</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470372</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464969</v>
+        <v>894.1397680464961</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307328</v>
+        <v>581.825297830732</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668173</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7512,28 +7512,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>598.2565075725903</v>
+        <v>453.7336441225987</v>
       </c>
       <c r="C43" t="n">
-        <v>527.9917592185268</v>
+        <v>383.4688957685352</v>
       </c>
       <c r="D43" t="n">
-        <v>476.5465543800345</v>
+        <v>332.023690930043</v>
       </c>
       <c r="E43" t="n">
-        <v>427.3048953714848</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F43" t="n">
-        <v>280.4149478735745</v>
+        <v>183.0892706919197</v>
       </c>
       <c r="G43" t="n">
-        <v>211.3835458221369</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
         <v>111.6347488791189</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S43" t="n">
-        <v>1790.301070122838</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T43" t="n">
-        <v>1568.534454692364</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U43" t="n">
-        <v>1378.103022391851</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V43" t="n">
-        <v>1222.089968759808</v>
+        <v>978.8956707359725</v>
       </c>
       <c r="W43" t="n">
-        <v>1031.344233296691</v>
+        <v>788.1499352728554</v>
       </c>
       <c r="X43" t="n">
-        <v>902.0261169725167</v>
+        <v>658.8318189486815</v>
       </c>
       <c r="Y43" t="n">
-        <v>681.2335378289865</v>
+        <v>536.7106743789949</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.14193247037</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103802</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070896</v>
+        <v>1181.256586070895</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464961</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F44" t="n">
         <v>581.8252978307328</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218333</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218333</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329461</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001385</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060167</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939504</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296682</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052364</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609167</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710106</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668171</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515851</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746124</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049855</v>
+        <v>2565.332559049853</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.538235362617</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.07033796065</v>
+        <v>1999.070337960649</v>
       </c>
     </row>
     <row r="45">
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064539</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218333</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
         <v>765.151745215813</v>
@@ -7737,37 +7737,37 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
         <v>1109.759191501176</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>598.2565075725903</v>
+        <v>500.9308303909353</v>
       </c>
       <c r="C46" t="n">
-        <v>429.3203246446834</v>
+        <v>430.6660820368719</v>
       </c>
       <c r="D46" t="n">
-        <v>377.8751198061911</v>
+        <v>280.5494426245362</v>
       </c>
       <c r="E46" t="n">
-        <v>328.6334607976414</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F46" t="n">
-        <v>280.4149478735745</v>
+        <v>183.0892706919197</v>
       </c>
       <c r="G46" t="n">
-        <v>211.3835458221369</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218333</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218333</v>
       </c>
       <c r="J46" t="n">
         <v>111.6347488791189</v>
@@ -7810,19 +7810,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764913</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760402</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q46" t="n">
         <v>1927.294548088492</v>
@@ -7831,25 +7831,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1790.301070122838</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T46" t="n">
-        <v>1667.205889266208</v>
+        <v>1711.184917632531</v>
       </c>
       <c r="U46" t="n">
-        <v>1476.774456965695</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V46" t="n">
-        <v>1320.761403333651</v>
+        <v>1266.068997126131</v>
       </c>
       <c r="W46" t="n">
-        <v>1031.344233296691</v>
+        <v>1075.323261663014</v>
       </c>
       <c r="X46" t="n">
-        <v>902.0261169725168</v>
+        <v>847.3337107649968</v>
       </c>
       <c r="Y46" t="n">
-        <v>779.90497240283</v>
+        <v>626.5411316214667</v>
       </c>
     </row>
   </sheetData>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>213.8677805682736</v>
+        <v>213.8677805682734</v>
       </c>
       <c r="L8" t="n">
-        <v>228.0473863505249</v>
+        <v>228.0473863505247</v>
       </c>
       <c r="M8" t="n">
-        <v>221.7573265905339</v>
+        <v>221.7573265905336</v>
       </c>
       <c r="N8" t="n">
-        <v>220.6851794710442</v>
+        <v>220.6851794710439</v>
       </c>
       <c r="O8" t="n">
-        <v>221.8567179355885</v>
+        <v>221.8567179355883</v>
       </c>
       <c r="P8" t="n">
-        <v>224.1990717385754</v>
+        <v>224.1990717385752</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,22 +8532,22 @@
         <v>124.3650025758398</v>
       </c>
       <c r="K9" t="n">
-        <v>133.6153305693651</v>
+        <v>133.615330569365</v>
       </c>
       <c r="L9" t="n">
-        <v>132.8718554951899</v>
+        <v>132.8718554951898</v>
       </c>
       <c r="M9" t="n">
-        <v>135.5027961091467</v>
+        <v>135.5027961091465</v>
       </c>
       <c r="N9" t="n">
-        <v>124.5349651374189</v>
+        <v>124.5349651374187</v>
       </c>
       <c r="O9" t="n">
-        <v>136.3694007948885</v>
+        <v>136.3694007948883</v>
       </c>
       <c r="P9" t="n">
-        <v>128.9768164173283</v>
+        <v>128.9768164173281</v>
       </c>
       <c r="Q9" t="n">
         <v>136.6410168537934</v>
@@ -8617,13 +8617,13 @@
         <v>131.6226139202305</v>
       </c>
       <c r="M10" t="n">
-        <v>135.486396562815</v>
+        <v>135.4863965628149</v>
       </c>
       <c r="N10" t="n">
         <v>124.3279380250446</v>
       </c>
       <c r="O10" t="n">
-        <v>135.3552454599785</v>
+        <v>135.3552454599784</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.580957587066223e-12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.48334686148155e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>10.77149445565578</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>10.77149445565161</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>10.77149445565169</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>10.77149445565442</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>4.014566457044566e-13</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>10.77149445565573</v>
+        <v>10.7714944556509</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>4.867217739956686e-13</v>
+        <v>3.872457909892546e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>10.77149445565573</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>10.77149445564982</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>4.867217739956686e-13</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10598,10 +10598,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,10 +11297,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>-2.785327524179593e-12</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.13331566353736e-12</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>234.6935818597297</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>55.87771033587026</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-1.378452907374594e-12</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23501,16 +23501,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.724779460850812</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.2628020374611</v>
+        <v>102.4006336413281</v>
       </c>
     </row>
     <row r="15">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>52.28225787287612</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>52.28225787287854</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>52.28225787287566</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>52.28225787287508</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>41.72511615689109</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24218,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>41.72511615689342</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24446,19 +24446,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>12.67447572244856</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24506,10 +24506,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>116.7891675947931</v>
       </c>
     </row>
     <row r="27">
@@ -24686,7 +24686,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>214.5798716253347</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24734,19 +24734,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>41.66583130364548</v>
       </c>
     </row>
     <row r="30">
@@ -25871,10 +25871,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>2.955857780762017e-12</v>
       </c>
       <c r="F44" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>893439.0674750583</v>
+        <v>893439.0674750581</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>739723.2266256218</v>
+        <v>739723.2266256217</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>789454.8642609934</v>
+        <v>789454.8642609932</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>790724.7713448248</v>
+        <v>790724.7713448245</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>740993.1337094533</v>
+        <v>740993.1337094528</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>740993.1337094534</v>
+        <v>740993.1337094528</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>793880.024628609</v>
+        <v>793880.0246286086</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>793408.4486013403</v>
+        <v>793408.4486013399</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>655421.0709736308</v>
+        <v>655421.0709736305</v>
       </c>
       <c r="C2" t="n">
-        <v>655421.0709736306</v>
+        <v>655421.0709736305</v>
       </c>
       <c r="D2" t="n">
         <v>655424.1858302912</v>
       </c>
       <c r="E2" t="n">
-        <v>611624.8079118745</v>
+        <v>611624.8079118743</v>
       </c>
       <c r="F2" t="n">
-        <v>611624.8079118745</v>
+        <v>611624.8079118741</v>
       </c>
       <c r="G2" t="n">
+        <v>653504.0817100817</v>
+      </c>
+      <c r="H2" t="n">
         <v>653504.0817100821</v>
       </c>
-      <c r="H2" t="n">
-        <v>653504.081710082</v>
-      </c>
       <c r="I2" t="n">
-        <v>654176.3604945557</v>
+        <v>654176.3604945552</v>
       </c>
       <c r="J2" t="n">
-        <v>612297.0866963484</v>
+        <v>612297.0866963482</v>
       </c>
       <c r="K2" t="n">
-        <v>612297.0866963485</v>
+        <v>612297.0866963479</v>
       </c>
       <c r="L2" t="n">
+        <v>656833.4158914268</v>
+      </c>
+      <c r="M2" t="n">
         <v>656833.4158914263</v>
       </c>
-      <c r="M2" t="n">
-        <v>656833.4158914264</v>
-      </c>
       <c r="N2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="O2" t="n">
         <v>656833.4158914265</v>
       </c>
       <c r="P2" t="n">
-        <v>656833.4158914263</v>
+        <v>656833.4158914264</v>
       </c>
     </row>
     <row r="3">
@@ -26369,22 +26369,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>10420.33926655529</v>
+        <v>10420.33926655556</v>
       </c>
       <c r="E3" t="n">
-        <v>1151572.83087572</v>
+        <v>1151572.830875719</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.1092948741</v>
+        <v>37580.10929487445</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.581440068955999e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>723.3987018800178</v>
+        <v>723.3987018797458</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>77544.51094157039</v>
+        <v>77544.51094157067</v>
       </c>
       <c r="M3" t="n">
-        <v>207113.9109540877</v>
+        <v>207113.9109540876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>463150.7311021098</v>
       </c>
       <c r="D4" t="n">
-        <v>459028.1883762661</v>
+        <v>459028.188376266</v>
       </c>
       <c r="E4" t="n">
-        <v>61265.27723866004</v>
+        <v>61265.27723866019</v>
       </c>
       <c r="F4" t="n">
-        <v>61265.27723865999</v>
+        <v>61265.27723866017</v>
       </c>
       <c r="G4" t="n">
-        <v>91028.44393036206</v>
+        <v>91028.44393036215</v>
       </c>
       <c r="H4" t="n">
-        <v>91028.44393036209</v>
+        <v>91028.44393036213</v>
       </c>
       <c r="I4" t="n">
-        <v>91501.30607406871</v>
+        <v>91501.30607406859</v>
       </c>
       <c r="J4" t="n">
-        <v>61738.13938236663</v>
+        <v>61738.13938236651</v>
       </c>
       <c r="K4" t="n">
-        <v>61738.13938236672</v>
+        <v>61738.13938236653</v>
       </c>
       <c r="L4" t="n">
-        <v>93397.00574718695</v>
+        <v>93397.00574718686</v>
       </c>
       <c r="M4" t="n">
-        <v>93403.78684820639</v>
+        <v>93403.78684820641</v>
       </c>
       <c r="N4" t="n">
         <v>93403.78684820639</v>
       </c>
       <c r="O4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820639</v>
       </c>
       <c r="P4" t="n">
-        <v>93403.78684820639</v>
+        <v>93403.78684820625</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26473,43 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33892.84951251486</v>
+        <v>33892.84951251487</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178172</v>
       </c>
       <c r="G5" t="n">
+        <v>82204.64608217019</v>
+      </c>
+      <c r="H5" t="n">
         <v>82204.64608217025</v>
       </c>
-      <c r="H5" t="n">
-        <v>82204.64608217023</v>
-      </c>
       <c r="I5" t="n">
-        <v>82370.04347866887</v>
+        <v>82370.04347866881</v>
       </c>
       <c r="J5" t="n">
-        <v>78420.89071828043</v>
+        <v>78420.89071828035</v>
       </c>
       <c r="K5" t="n">
-        <v>78420.89071828043</v>
+        <v>78420.89071828034</v>
       </c>
       <c r="L5" t="n">
-        <v>82620.59982082556</v>
+        <v>82620.59982082552</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
         <v>82518.59730624984</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624979</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158642.739871521</v>
+        <v>158638.3262936526</v>
       </c>
       <c r="C6" t="n">
-        <v>158642.7398715209</v>
+        <v>158638.3262936526</v>
       </c>
       <c r="D6" t="n">
-        <v>152082.808674955</v>
+        <v>152078.4048310137</v>
       </c>
       <c r="E6" t="n">
-        <v>-679468.7935242876</v>
+        <v>-679610.0704242232</v>
       </c>
       <c r="F6" t="n">
-        <v>472104.0373514327</v>
+        <v>471962.7604514962</v>
       </c>
       <c r="G6" t="n">
-        <v>442690.8824026758</v>
+        <v>442680.4782333582</v>
       </c>
       <c r="H6" t="n">
-        <v>480270.9916975498</v>
+        <v>480260.5875282327</v>
       </c>
       <c r="I6" t="n">
-        <v>479581.612239938</v>
+        <v>479573.3089418229</v>
       </c>
       <c r="J6" t="n">
-        <v>472138.0565957013</v>
+        <v>471998.8805669667</v>
       </c>
       <c r="K6" t="n">
-        <v>472138.0565957014</v>
+        <v>471998.8805669664</v>
       </c>
       <c r="L6" t="n">
-        <v>403271.2993818434</v>
+        <v>403271.2993818439</v>
       </c>
       <c r="M6" t="n">
-        <v>273797.1207828825</v>
+        <v>273797.1207828824</v>
       </c>
       <c r="N6" t="n">
-        <v>480911.0317369701</v>
+        <v>480911.0317369704</v>
       </c>
       <c r="O6" t="n">
         <v>480911.0317369702</v>
       </c>
       <c r="P6" t="n">
-        <v>480911.03173697</v>
+        <v>480911.0317369703</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G2" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="H2" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="I2" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859256</v>
@@ -26713,19 +26713,19 @@
         <v>46.9751366185926</v>
       </c>
       <c r="L2" t="n">
-        <v>96.93063867696297</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="3">
@@ -26741,16 +26741,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.1674088309571</v>
+        <v>12.16740883095741</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022931</v>
       </c>
       <c r="I4" t="n">
-        <v>834.1218073183892</v>
+        <v>834.1218073183882</v>
       </c>
       <c r="J4" t="n">
-        <v>834.1218073183892</v>
+        <v>834.1218073183882</v>
       </c>
       <c r="K4" t="n">
-        <v>834.1218073183892</v>
+        <v>834.1218073183879</v>
       </c>
       <c r="L4" t="n">
-        <v>834.1218073183892</v>
+        <v>834.1218073183879</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022917</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>96.93063867696299</v>
+        <v>96.93063867696334</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7540815511420078</v>
+        <v>0.7540815511416952</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,22 +26963,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.1674088309571</v>
+        <v>12.16740883095741</v>
       </c>
       <c r="E3" t="n">
-        <v>1077.609291762341</v>
+        <v>1077.60929176234</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-1.376653442271636e-14</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,10 +27027,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="I4" t="n">
-        <v>2.720351916096092</v>
+        <v>2.720351916095069</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>828.6811034861963</v>
+        <v>828.6811034861971</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27874,7 +27874,7 @@
         <v>208.5901246298814</v>
       </c>
       <c r="J8" t="n">
-        <v>7.797757232938365</v>
+        <v>7.797757232938258</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,13 +27895,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.70851521296081</v>
+        <v>4.708515212960674</v>
       </c>
       <c r="R8" t="n">
-        <v>146.7965109261643</v>
+        <v>146.7965109261642</v>
       </c>
       <c r="S8" t="n">
-        <v>207.905437108917</v>
+        <v>207.9054371089169</v>
       </c>
       <c r="T8" t="n">
         <v>222.8817276258097</v>
@@ -27950,7 +27950,7 @@
         <v>111.9826835360647</v>
       </c>
       <c r="I9" t="n">
-        <v>88.49555587666967</v>
+        <v>88.49555587666964</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>98.53291113933155</v>
+        <v>98.5329111393315</v>
       </c>
       <c r="S9" t="n">
-        <v>171.1970486849784</v>
+        <v>171.1970486849783</v>
       </c>
       <c r="T9" t="n">
         <v>200.0592395559947</v>
@@ -28032,10 +28032,10 @@
         <v>154.790642330327</v>
       </c>
       <c r="J10" t="n">
-        <v>91.80793522358502</v>
+        <v>91.80793522358498</v>
       </c>
       <c r="K10" t="n">
-        <v>19.72031994293807</v>
+        <v>19.720319942938</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,10 +28050,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.06774881564662394</v>
+        <v>0.06774881564655511</v>
       </c>
       <c r="Q10" t="n">
-        <v>84.32476451821987</v>
+        <v>84.32476451821981</v>
       </c>
       <c r="R10" t="n">
         <v>176.3068339332692</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292606</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="C17" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="D17" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="E17" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="F17" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="G17" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="H17" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="T17" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="U17" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="V17" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="W17" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="X17" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="Y17" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="C19" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="D19" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="E19" t="n">
-        <v>86.47183148750412</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="F19" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="G19" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="H19" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="I19" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="T19" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="U19" t="n">
-        <v>93.95027323718513</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="X19" t="n">
-        <v>93.95027323718513</v>
+        <v>86.47183148750452</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.95027323718513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="C20" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="D20" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="E20" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="F20" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="G20" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="H20" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="T20" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="U20" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="V20" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="W20" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="X20" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="Y20" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>91.48995205464277</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="E22" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="F22" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="G22" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="H22" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="I22" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29007,25 +29007,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="T22" t="n">
-        <v>93.95027323718513</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>91.48995205464166</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="X22" t="n">
-        <v>93.95027323718513</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.95027323718513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="C23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="D23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="E23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="F23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="G23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="H23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="T23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="U23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="V23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="W23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="X23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="Y23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371852</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.95027323718512</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="D25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="E25" t="n">
-        <v>93.95027323718512</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="H25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>91.4899520546435</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>86.47183148750435</v>
       </c>
       <c r="W25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="X25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371852</v>
       </c>
     </row>
     <row r="26">
@@ -29293,7 +29293,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29709,7 +29709,7 @@
         <v>46.9751366185926</v>
       </c>
       <c r="P31" t="n">
-        <v>46.9751366185917</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Q31" t="n">
         <v>46.9751366185926</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>96.93063867696297</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="C32" t="n">
-        <v>96.93063867696297</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="D32" t="n">
-        <v>96.93063867696297</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="E32" t="n">
-        <v>96.93063867696297</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="F32" t="n">
-        <v>96.93063867696297</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="G32" t="n">
-        <v>96.93063867696297</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="H32" t="n">
-        <v>96.93063867696297</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>96.93063867696297</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="T32" t="n">
-        <v>96.93063867696297</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="U32" t="n">
-        <v>96.93063867696297</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="V32" t="n">
-        <v>96.93063867696297</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="W32" t="n">
-        <v>96.93063867696297</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="X32" t="n">
-        <v>96.93063867696297</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="Y32" t="n">
-        <v>96.93063867696297</v>
+        <v>96.93063867696333</v>
       </c>
     </row>
     <row r="33">
@@ -29904,28 +29904,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>96.93063867696297</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="C34" t="n">
-        <v>96.93063867696297</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="D34" t="n">
-        <v>96.93063867696297</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="E34" t="n">
-        <v>96.93063867696297</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="G34" t="n">
-        <v>96.93063867696297</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -29952,28 +29952,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>54.26602991707401</v>
+        <v>54.2660299170695</v>
       </c>
       <c r="S34" t="n">
-        <v>96.93063867696297</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>96.93063867696297</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="V34" t="n">
-        <v>96.93063867696297</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>96.93063867696297</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>96.93063867696297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810498</v>
+        <v>55.47778196371118</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983812</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>46.7252144056537</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H40" t="n">
-        <v>55.47778196371156</v>
+        <v>45.39291458738624</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810498</v>
+        <v>46.72521440565339</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>54.14548214544428</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>55.47778196371129</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>54.1454821454445</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04891420635560639</v>
+        <v>0.04891420635560766</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5009426158393542</v>
+        <v>0.5009426158393671</v>
       </c>
       <c r="I8" t="n">
-        <v>1.885764940524517</v>
+        <v>1.885764940524566</v>
       </c>
       <c r="J8" t="n">
-        <v>4.151532121674152</v>
+        <v>4.15153212167426</v>
       </c>
       <c r="K8" t="n">
-        <v>6.222070476706972</v>
+        <v>6.222070476707133</v>
       </c>
       <c r="L8" t="n">
-        <v>7.719028619462363</v>
+        <v>7.719028619462563</v>
       </c>
       <c r="M8" t="n">
-        <v>8.588906636738878</v>
+        <v>8.5889066367391</v>
       </c>
       <c r="N8" t="n">
-        <v>8.727884125546746</v>
+        <v>8.727884125546971</v>
       </c>
       <c r="O8" t="n">
-        <v>8.241493486098184</v>
+        <v>8.241493486098397</v>
       </c>
       <c r="P8" t="n">
-        <v>7.03392401669415</v>
+        <v>7.033924016694331</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.282184001583994</v>
+        <v>5.28218400158413</v>
       </c>
       <c r="R8" t="n">
-        <v>3.072607014985363</v>
+        <v>3.072607014985442</v>
       </c>
       <c r="S8" t="n">
-        <v>1.114632477328382</v>
+        <v>1.114632477328411</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2141219383216671</v>
+        <v>0.2141219383216726</v>
       </c>
       <c r="U8" t="n">
-        <v>0.003913136508448511</v>
+        <v>0.003913136508448612</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02617140767413414</v>
+        <v>0.02617140767413482</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2527607004317692</v>
+        <v>0.2527607004317758</v>
       </c>
       <c r="I9" t="n">
-        <v>0.901076974745408</v>
+        <v>0.9010769747454314</v>
       </c>
       <c r="J9" t="n">
-        <v>2.472624090826858</v>
+        <v>2.472624090826922</v>
       </c>
       <c r="K9" t="n">
-        <v>4.226108404993846</v>
+        <v>4.226108404993955</v>
       </c>
       <c r="L9" t="n">
-        <v>5.682524284684257</v>
+        <v>5.682524284684405</v>
       </c>
       <c r="M9" t="n">
-        <v>6.631237812871619</v>
+        <v>6.63123781287179</v>
       </c>
       <c r="N9" t="n">
-        <v>6.806746945914388</v>
+        <v>6.806746945914564</v>
       </c>
       <c r="O9" t="n">
-        <v>6.226843649555942</v>
+        <v>6.226843649556103</v>
       </c>
       <c r="P9" t="n">
-        <v>4.997590997001984</v>
+        <v>4.997590997002114</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.340757232228071</v>
+        <v>3.340757232228157</v>
       </c>
       <c r="R9" t="n">
-        <v>1.624923013311592</v>
+        <v>1.624923013311634</v>
       </c>
       <c r="S9" t="n">
-        <v>0.486122418859465</v>
+        <v>0.4861224188594775</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1054891388268828</v>
+        <v>0.1054891388268855</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001721803136456194</v>
+        <v>0.001721803136456239</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02194122903943083</v>
+        <v>0.0219412290394314</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1950774727323943</v>
+        <v>0.1950774727323993</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6598325969312475</v>
+        <v>0.6598325969312645</v>
       </c>
       <c r="J10" t="n">
-        <v>1.55124489308776</v>
+        <v>1.5512448930878</v>
       </c>
       <c r="K10" t="n">
-        <v>2.549171882944782</v>
+        <v>2.549171882944848</v>
       </c>
       <c r="L10" t="n">
-        <v>3.262062361007745</v>
+        <v>3.262062361007829</v>
       </c>
       <c r="M10" t="n">
-        <v>3.439387384790053</v>
+        <v>3.439387384790142</v>
       </c>
       <c r="N10" t="n">
-        <v>3.357606440188541</v>
+        <v>3.357606440188627</v>
       </c>
       <c r="O10" t="n">
-        <v>3.10129299186428</v>
+        <v>3.101292991864359</v>
       </c>
       <c r="P10" t="n">
-        <v>2.653691919459888</v>
+        <v>2.653691919459957</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.837278733474522</v>
+        <v>1.837278733474569</v>
       </c>
       <c r="R10" t="n">
-        <v>0.9865574439002261</v>
+        <v>0.9865574439002517</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3823757824417172</v>
+        <v>0.3823757824417271</v>
       </c>
       <c r="T10" t="n">
-        <v>0.09374888771393172</v>
+        <v>0.09374888771393415</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001196794311241683</v>
+        <v>0.001196794311241714</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003807</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.356529362319</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574989</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095019</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781687</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806945</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.6385688179853</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752252</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138793</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.647816683792</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970247</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238314</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898492</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742015</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.3612387071221</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553034</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.39664015211229</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.461131202644</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -32801,7 +32801,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970259</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
         <v>447.6103584002926</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34454,7 +34454,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837924</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M13" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O13" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
         <v>281.932207763703</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687123</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554002</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923317</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302262</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193714</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037192</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222461</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597696</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340051</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004588</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127269</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165873</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629121</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O16" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P16" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>201.5584954243683</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554004</v>
@@ -36376,7 +36376,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>261.565799259371</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222472</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597728</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36449,7 +36449,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525815</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>549.6926102858782</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>409.5334806750263</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36835,7 +36835,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>466.3616088479877</v>
+        <v>466.3616088479828</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302265</v>
@@ -37005,7 +37005,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637021</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>466.3616088479877</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>409.5334806750217</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37239,13 +37239,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37318,10 +37318,10 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882196</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
         <v>250.7943048037194</v>
@@ -37549,7 +37549,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302271</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129113</v>
@@ -38017,10 +38017,10 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923292</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302265</v>
@@ -38102,7 +38102,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004591</v>
